--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2519E24A-2CAB-489C-9A17-88F235A0A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD4FC0-BB3C-4E1D-BA21-0FD814940047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Nemotron</t>
   </si>
@@ -57,12 +62,6 @@
     <t>Metrics</t>
   </si>
   <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
     <t>Précision</t>
   </si>
   <si>
@@ -88,13 +87,25 @@
   </si>
   <si>
     <t>A4000</t>
+  </si>
+  <si>
+    <t>96.1282</t>
+  </si>
+  <si>
+    <t>Temps (s)</t>
+  </si>
+  <si>
+    <t>1.131</t>
+  </si>
+  <si>
+    <t>RAM (GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,14 +557,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,6 +721,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,6 +757,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,42 +773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,269 +1117,272 @@
   <dimension ref="D3:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="20" width="9.28515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="2" width="2.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="20" width="9.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20">
-      <c r="D3" s="2"/>
-      <c r="E3" s="56" t="s">
+    <row r="3" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
     </row>
-    <row r="4" spans="4:20">
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68" t="s">
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71" t="s">
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="73"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69"/>
     </row>
-    <row r="5" spans="4:20">
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
     </row>
-    <row r="6" spans="4:20">
-      <c r="D6" s="3" t="s">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="49"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
     </row>
-    <row r="7" spans="4:20">
-      <c r="D7" s="4" t="s">
+    <row r="9" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
     </row>
-    <row r="8" spans="4:20">
-      <c r="D8" s="4" t="s">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
     </row>
-    <row r="9" spans="4:20">
-      <c r="D9" s="4" t="s">
+    <row r="11" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
     </row>
-    <row r="10" spans="4:20">
-      <c r="D10" s="4" t="s">
+    <row r="12" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
-    </row>
-    <row r="11" spans="4:20">
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-    </row>
-    <row r="12" spans="4:20">
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1383,5 +1394,6 @@
     <mergeCell ref="I3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD4FC0-BB3C-4E1D-BA21-0FD814940047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B646B6B-75D0-4C0F-B7DA-74B32B42952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Nemotron</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Unsloth</t>
   </si>
   <si>
-    <t>GPU / Models</t>
-  </si>
-  <si>
     <t>Nvidia Minitron 8B</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
     <t>Gemma 2 (9B)</t>
   </si>
   <si>
-    <t>Metrics</t>
-  </si>
-  <si>
-    <t>Précision</t>
-  </si>
-  <si>
-    <t>Coût</t>
-  </si>
-  <si>
     <t>H100</t>
   </si>
   <si>
@@ -89,23 +77,62 @@
     <t>A4000</t>
   </si>
   <si>
-    <t>96.1282</t>
-  </si>
-  <si>
-    <t>Temps (s)</t>
-  </si>
-  <si>
-    <t>1.131</t>
-  </si>
-  <si>
     <t>RAM (GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU </t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>$ / h  | Metrics</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Models are trained on yahma/alpaca-cleaned dataset.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Accuracy is an average of 5 test runs of the cais/mmlu dataset on H100.</t>
+  </si>
+  <si>
+    <t>VRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"-" means that there is less VRAM </t>
+  </si>
+  <si>
+    <t>RunPod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +142,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -160,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -169,7 +213,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -178,120 +222,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -423,34 +353,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -464,19 +370,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,19 +397,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -551,228 +431,660 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,284 +1426,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:T12"/>
+  <dimension ref="E2:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="2.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="20" width="9.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="18.33203125" style="1"/>
+    <col min="3" max="4" width="0.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.21875" style="1" customWidth="1"/>
+    <col min="9" max="24" width="9.33203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E3" s="64" t="s">
+    <row r="2" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="70" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
     </row>
-    <row r="4" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="58" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="55" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="67" t="s">
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="27"/>
+    </row>
+    <row r="5" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="I6" s="43">
+        <v>64</v>
+      </c>
+      <c r="J6" s="64">
+        <v>20.524000000000001</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="L6" s="44">
+        <f>I6*(H6/3600)</f>
+        <v>2.9511111111111109E-2</v>
+      </c>
+      <c r="M6" s="45">
+        <v>219</v>
+      </c>
+      <c r="N6" s="67">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="O6" s="67"/>
+      <c r="P6" s="46">
+        <f>M6*(H6/3600)</f>
+        <v>0.10098333333333333</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>182</v>
+      </c>
+      <c r="R6" s="70">
+        <v>1.248</v>
+      </c>
+      <c r="S6" s="70"/>
+      <c r="T6" s="48">
+        <f>Q6*(H6/3600)</f>
+        <v>8.3922222222222218E-2</v>
+      </c>
+      <c r="U6" s="49">
+        <v>255</v>
+      </c>
+      <c r="V6" s="73">
+        <v>2.375</v>
+      </c>
+      <c r="W6" s="73"/>
+      <c r="X6" s="50">
+        <f>U6*(H6/3600)</f>
+        <v>0.11758333333333333</v>
+      </c>
     </row>
-    <row r="5" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="6" t="s">
+    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F7" s="3">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I7" s="51">
+        <v>107</v>
+      </c>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="7">
+        <f>I7*(H7/3600)</f>
+        <v>2.645277777777778E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>262</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="9">
+        <f>M7*(H7/3600)</f>
+        <v>6.4772222222222231E-2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>272</v>
+      </c>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="11">
+        <f>Q7*(H7/3600)</f>
+        <v>6.7244444444444454E-2</v>
+      </c>
+      <c r="U7" s="12">
+        <v>322</v>
+      </c>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="52">
+        <f>U7*(H7/3600)</f>
+        <v>7.9605555555555568E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="F8" s="3">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="7" t="e">
+        <f t="shared" ref="L8:L12" si="0">I8*(H8/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="9" t="e">
+        <f t="shared" ref="P8:P12" si="1">M8*(H8/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="11" t="e">
+        <f t="shared" ref="T8:T12" si="2">Q8*(H8/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="52" t="e">
+        <f t="shared" ref="X8:X12" si="3">U8*(H8/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>9</v>
+      <c r="F9" s="3">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="8">
+        <v>273</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8675000000000001E-2</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>271</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="11">
+        <f t="shared" si="2"/>
+        <v>3.8391666666666671E-2</v>
+      </c>
+      <c r="U9" s="12">
+        <v>269</v>
+      </c>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="52">
+        <f t="shared" si="3"/>
+        <v>3.8108333333333334E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
+      <c r="F10" s="3">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="51">
+        <v>237</v>
+      </c>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>194</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9399999999999997E-2</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>208</v>
+      </c>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="52" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
+    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
+      <c r="F11" s="3">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="8">
+        <v>192</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3466666666666663E-2</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>236</v>
+      </c>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
+        <v>2.8844444444444443E-2</v>
+      </c>
+      <c r="U11" s="12">
+        <v>305</v>
+      </c>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="52">
+        <f t="shared" si="3"/>
+        <v>3.7277777777777778E-2</v>
+      </c>
     </row>
-    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+    <row r="12" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
+      <c r="F12" s="4">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="54" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="55">
+        <v>316</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="56">
+        <f t="shared" si="1"/>
+        <v>1.6677777777777777E-2</v>
+      </c>
+      <c r="Q12" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="58" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="59">
+        <v>409</v>
+      </c>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="60">
+        <f t="shared" si="3"/>
+        <v>2.1586111111111111E-2</v>
+      </c>
     </row>
-    <row r="9" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
+    <row r="14" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="5:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
     </row>
-    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+    <row r="16" spans="5:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
-    <row r="11" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
+    <row r="17" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
     </row>
-    <row r="12" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="54"/>
+    <row r="18" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I21"/>
+    <mergeCell ref="J6:J12"/>
+    <mergeCell ref="N6:N12"/>
+    <mergeCell ref="R6:R12"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="W6:W12"/>
+    <mergeCell ref="S6:S12"/>
+    <mergeCell ref="O6:O12"/>
+    <mergeCell ref="K6:K12"/>
+    <mergeCell ref="Q4:T4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="M3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B646B6B-75D0-4C0F-B7DA-74B32B42952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C84A9-D83D-4223-9C98-BBA8DE9ED36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Nemotron</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Models are trained on yahma/alpaca-cleaned dataset.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Note</t>
@@ -204,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -219,21 +216,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -476,12 +458,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -494,7 +474,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -504,14 +486,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -522,82 +504,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -684,32 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -806,102 +687,183 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,163 +890,259 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,7 +1487,7 @@
   <dimension ref="E2:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,33 +1502,33 @@
   <sheetData>
     <row r="2" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="28" t="s">
+      <c r="I3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67"/>
     </row>
     <row r="4" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
@@ -1478,30 +1536,30 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="13" t="s">
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="25" t="s">
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="27"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="64"/>
     </row>
     <row r="5" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="6" t="s">
@@ -1516,52 +1574,52 @@
       <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="V5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="41" t="s">
+      <c r="W5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1578,49 +1636,33 @@
       <c r="H6" s="2">
         <v>1.66</v>
       </c>
-      <c r="I6" s="43">
-        <v>64</v>
-      </c>
-      <c r="J6" s="64">
-        <v>20.524000000000001</v>
-      </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="44">
+      <c r="I6" s="88"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="22">
         <f>I6*(H6/3600)</f>
-        <v>2.9511111111111109E-2</v>
-      </c>
-      <c r="M6" s="45">
-        <v>219</v>
-      </c>
-      <c r="N6" s="67">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="46">
+        <v>0</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="23">
         <f>M6*(H6/3600)</f>
-        <v>0.10098333333333333</v>
-      </c>
-      <c r="Q6" s="47">
-        <v>182</v>
-      </c>
-      <c r="R6" s="70">
-        <v>1.248</v>
-      </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="24">
         <f>Q6*(H6/3600)</f>
-        <v>8.3922222222222218E-2</v>
-      </c>
-      <c r="U6" s="49">
-        <v>255</v>
-      </c>
-      <c r="V6" s="73">
-        <v>2.375</v>
-      </c>
-      <c r="W6" s="73"/>
-      <c r="X6" s="50">
+        <v>0</v>
+      </c>
+      <c r="U6" s="68"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="25">
         <f>U6*(H6/3600)</f>
-        <v>0.11758333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="5:24" x14ac:dyDescent="0.3">
@@ -1636,41 +1678,33 @@
       <c r="H7" s="3">
         <v>0.89</v>
       </c>
-      <c r="I7" s="51">
-        <v>107</v>
-      </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="7">
         <f>I7*(H7/3600)</f>
-        <v>2.645277777777778E-2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>262</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="83"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="8">
         <f>M7*(H7/3600)</f>
-        <v>6.4772222222222231E-2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>272</v>
-      </c>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="9">
         <f>Q7*(H7/3600)</f>
-        <v>6.7244444444444454E-2</v>
-      </c>
-      <c r="U7" s="12">
-        <v>322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U7" s="69"/>
       <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="52">
+      <c r="W7" s="72"/>
+      <c r="X7" s="26">
         <f>U7*(H7/3600)</f>
-        <v>7.9605555555555568E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:24" x14ac:dyDescent="0.3">
@@ -1686,41 +1720,33 @@
       <c r="H8" s="3">
         <v>0.49</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="7" t="e">
+      <c r="I8" s="89"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="7">
         <f t="shared" ref="L8:L12" si="0">I8*(H8/3600)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="M8" s="83"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="8">
         <f t="shared" ref="P8:P12" si="1">M8*(H8/3600)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="11" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="9">
         <f t="shared" ref="T8:T12" si="2">Q8*(H8/3600)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U8" s="69"/>
       <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="52" t="e">
+      <c r="W8" s="72"/>
+      <c r="X8" s="26">
         <f t="shared" ref="X8:X12" si="3">U8*(H8/3600)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="5:24" x14ac:dyDescent="0.3">
@@ -1736,41 +1762,33 @@
       <c r="H9" s="3">
         <v>0.51</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="7" t="e">
+      <c r="I9" s="89"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="7">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="8">
-        <v>273</v>
-      </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="83"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="8">
         <f t="shared" si="1"/>
-        <v>3.8675000000000001E-2</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>271</v>
-      </c>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="9">
         <f t="shared" si="2"/>
-        <v>3.8391666666666671E-2</v>
-      </c>
-      <c r="U9" s="12">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U9" s="69"/>
       <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="52">
+      <c r="W9" s="72"/>
+      <c r="X9" s="26">
         <f t="shared" si="3"/>
-        <v>3.8108333333333334E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:24" x14ac:dyDescent="0.3">
@@ -1781,46 +1799,38 @@
         <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
         <v>0.36</v>
       </c>
-      <c r="I10" s="51">
-        <v>237</v>
-      </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="M10" s="8">
-        <v>194</v>
-      </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="83"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="8">
         <f t="shared" si="1"/>
-        <v>1.9399999999999997E-2</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>208</v>
-      </c>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="9">
         <f t="shared" si="2"/>
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U10" s="69"/>
       <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="52" t="e">
+      <c r="W10" s="72"/>
+      <c r="X10" s="26">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:24" x14ac:dyDescent="0.3">
@@ -1831,46 +1841,38 @@
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3">
         <v>0.44</v>
       </c>
-      <c r="I11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="7" t="e">
+      <c r="I11" s="89"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="7">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="8">
-        <v>192</v>
-      </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="83"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="8">
         <f t="shared" si="1"/>
-        <v>2.3466666666666663E-2</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>236</v>
-      </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="9">
         <f t="shared" si="2"/>
-        <v>2.8844444444444443E-2</v>
-      </c>
-      <c r="U11" s="12">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U11" s="69"/>
       <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="52">
+      <c r="W11" s="72"/>
+      <c r="X11" s="26">
         <f t="shared" si="3"/>
-        <v>3.7277777777777778E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1881,136 +1883,124 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4">
         <v>0.19</v>
       </c>
-      <c r="I12" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="54" t="e">
+      <c r="I12" s="90"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="27">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="55">
-        <v>316</v>
-      </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="56">
+        <v>0</v>
+      </c>
+      <c r="M12" s="84"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="28">
         <f t="shared" si="1"/>
-        <v>1.6677777777777777E-2</v>
-      </c>
-      <c r="Q12" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="58" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="29">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U12" s="59">
-        <v>409</v>
-      </c>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="60">
+        <v>0</v>
+      </c>
+      <c r="U12" s="70"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="30">
         <f t="shared" si="3"/>
-        <v>2.1586111111111111E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="5:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
+      <c r="E15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="5:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="62"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
+      <c r="E18" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
+      <c r="E20" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I17"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I21"/>
-    <mergeCell ref="J6:J12"/>
-    <mergeCell ref="N6:N12"/>
-    <mergeCell ref="R6:R12"/>
-    <mergeCell ref="V6:V12"/>
-    <mergeCell ref="W6:W12"/>
-    <mergeCell ref="S6:S12"/>
-    <mergeCell ref="O6:O12"/>
+  <mergeCells count="14">
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="M3:X3"/>
     <mergeCell ref="K6:K12"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="M3:X3"/>
+    <mergeCell ref="W6:W12"/>
+    <mergeCell ref="S6:S12"/>
+    <mergeCell ref="O6:O12"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I17"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C84A9-D83D-4223-9C98-BBA8DE9ED36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C4FB8-96DD-4A3E-B221-5C79E7470B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Nemotron</t>
   </si>
@@ -110,12 +110,12 @@
     <t>Models are trained on yahma/alpaca-cleaned dataset.</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Accuracy is an average of 5 test runs of the cais/mmlu dataset on H100.</t>
-  </si>
-  <si>
     <t>VRAM</t>
   </si>
   <si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>RunPod</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Disk Size</t>
+  </si>
+  <si>
+    <t>I wish Accuracy is an average of 5 test runs of the cais/mmlu dataset on H100.</t>
+  </si>
+  <si>
+    <t>Actually Accuracy is MMLU score on based pre-trained model.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -551,28 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -582,8 +575,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -598,63 +654,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,96 +665,86 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -765,12 +756,29 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,12 +786,29 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,9 +816,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -804,22 +831,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -834,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,220 +941,223 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,84 +1499,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:X21"/>
+  <dimension ref="E2:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="2.88671875" style="1" customWidth="1"/>
     <col min="3" max="4" width="0.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.21875" style="1" customWidth="1"/>
-    <col min="9" max="24" width="9.33203125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="18.33203125" style="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="1" customWidth="1"/>
+    <col min="12" max="27" width="9.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="59" t="s">
+    <row r="2" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="67"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="49"/>
     </row>
-    <row r="4" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="L4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="64"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="46"/>
     </row>
-    <row r="5" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1569,438 +1596,634 @@
         <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="P5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="Q5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="U5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="V5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="X5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="Y5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="Z5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>150</v>
+      </c>
+      <c r="I6" s="2">
         <v>80</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2">
-        <v>1.66</v>
-      </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="22">
-        <f>I6*(H6/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="23">
-        <f>M6*(H6/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="24">
-        <f>Q6*(H6/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="68"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="25">
-        <f>U6*(H6/3600)</f>
-        <v>0</v>
+      <c r="K6" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="L6" s="68">
+        <v>137</v>
+      </c>
+      <c r="M6" s="85">
+        <v>20.658999999999999</v>
+      </c>
+      <c r="N6" s="71">
+        <v>63.8</v>
+      </c>
+      <c r="O6" s="22">
+        <f>L6*(K6/3600)</f>
+        <v>6.2030555555555554E-2</v>
+      </c>
+      <c r="P6" s="62">
+        <v>186</v>
+      </c>
+      <c r="Q6" s="82">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="R6" s="65">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="S6" s="23">
+        <f>P6*(K6/3600)</f>
+        <v>8.4216666666666662E-2</v>
+      </c>
+      <c r="T6" s="56">
+        <v>201</v>
+      </c>
+      <c r="U6" s="74">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="V6" s="59">
+        <v>65</v>
+      </c>
+      <c r="W6" s="24">
+        <f>T6*(K6/3600)</f>
+        <v>9.100833333333333E-2</v>
+      </c>
+      <c r="X6" s="50">
+        <v>227</v>
+      </c>
+      <c r="Y6" s="78">
+        <v>2.387</v>
+      </c>
+      <c r="Z6" s="53">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="25">
+        <f>X6*(K6/3600)</f>
+        <v>0.10278055555555556</v>
       </c>
     </row>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3">
         <v>80</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="7">
-        <f>I7*(H7/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="8">
-        <f>M7*(H7/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="9">
-        <f>Q7*(H7/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="69"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="26">
-        <f>U7*(H7/3600)</f>
-        <v>0</v>
+      <c r="K7" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="L7" s="69">
+        <v>152</v>
+      </c>
+      <c r="M7" s="86"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="7">
+        <f>L7*(K7/3600)</f>
+        <v>3.7155555555555553E-2</v>
+      </c>
+      <c r="P7" s="63">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="8">
+        <f>P7*(K7/3600)</f>
+        <v>6.013333333333333E-2</v>
+      </c>
+      <c r="T7" s="57">
+        <v>254</v>
+      </c>
+      <c r="U7" s="75"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="9">
+        <f>T7*(K7/3600)</f>
+        <v>6.2088888888888888E-2</v>
+      </c>
+      <c r="X7" s="51">
+        <v>273</v>
+      </c>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="26">
+        <f>X7*(K7/3600)</f>
+        <v>6.6733333333333325E-2</v>
       </c>
     </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="7">
-        <f t="shared" ref="L8:L12" si="0">I8*(H8/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="8">
-        <f t="shared" ref="P8:P12" si="1">M8*(H8/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="9">
-        <f t="shared" ref="T8:T12" si="2">Q8*(H8/3600)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="26">
-        <f t="shared" ref="X8:X12" si="3">U8*(H8/3600)</f>
-        <v>0</v>
+      <c r="K8" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="86"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="7" t="e">
+        <f t="shared" ref="O8:O12" si="0">L8*(K8/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" s="63">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="88">
+        <f>P8*(K8/3600)</f>
+        <v>1.6580555555555557E-2</v>
+      </c>
+      <c r="T8" s="57">
+        <v>169</v>
+      </c>
+      <c r="U8" s="75"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="9">
+        <f t="shared" ref="W8:W12" si="1">T8*(K8/3600)</f>
+        <v>2.206388888888889E-2</v>
+      </c>
+      <c r="X8" s="51">
+        <v>196</v>
+      </c>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="26">
+        <f t="shared" ref="AA8:AA12" si="2">X8*(K8/3600)</f>
+        <v>2.5588888888888887E-2</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>48</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="7">
+      <c r="K9" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L9" s="69">
+        <v>232</v>
+      </c>
+      <c r="M9" s="86"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="89">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="8">
+        <v>3.028888888888889E-2</v>
+      </c>
+      <c r="P9" s="63">
+        <v>240</v>
+      </c>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="8">
+        <f t="shared" ref="S9:S12" si="3">P9*(K9/3600)</f>
+        <v>3.1333333333333331E-2</v>
+      </c>
+      <c r="T9" s="57">
+        <v>240</v>
+      </c>
+      <c r="U9" s="75"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="9">
+        <v>3.1333333333333331E-2</v>
+      </c>
+      <c r="X9" s="51">
+        <v>314</v>
+      </c>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="69"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0994444444444444E-2</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>0.36</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="7">
+      <c r="L10" s="69">
+        <v>217</v>
+      </c>
+      <c r="M10" s="86"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="8">
+        <v>2.1699999999999997E-2</v>
+      </c>
+      <c r="P10" s="63">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="8">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T10" s="57">
+        <v>182</v>
+      </c>
+      <c r="U10" s="75"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="9">
+        <v>1.8199999999999997E-2</v>
+      </c>
+      <c r="X10" s="51">
+        <v>219</v>
+      </c>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="81">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3">
+        <v>80</v>
+      </c>
+      <c r="I11" s="3">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="7">
+      <c r="K11" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="86"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="63">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4566666666666669E-2</v>
+      </c>
+      <c r="T11" s="57">
+        <v>287</v>
+      </c>
+      <c r="U11" s="75"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="9">
+        <v>1.8336111111111112E-2</v>
+      </c>
+      <c r="X11" s="51">
+        <v>647</v>
+      </c>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1336111111111115E-2</v>
       </c>
     </row>
-    <row r="12" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="27">
+      <c r="K12" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="87"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="27" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="64">
+        <v>307</v>
+      </c>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5349999999999999E-2</v>
+      </c>
+      <c r="T12" s="58">
+        <v>309</v>
+      </c>
+      <c r="U12" s="76"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="29">
+        <v>1.5449999999999998E-2</v>
+      </c>
+      <c r="X12" s="52">
+        <v>404</v>
+      </c>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="70"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="5:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="5:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+    <row r="14" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="5:27" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="5:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="35" t="s">
+    <row r="16" spans="5:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+    <row r="17" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="98"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="99"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+    <row r="18" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="99"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+    <row r="19" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="98"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="99"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="44" t="s">
+    <row r="20" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="99"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="98"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="99"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="101"/>
     </row>
-    <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
+    <row r="23" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="M3:X3"/>
-    <mergeCell ref="K6:K12"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="W6:W12"/>
-    <mergeCell ref="S6:S12"/>
-    <mergeCell ref="O6:O12"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I17"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I21"/>
+  <mergeCells count="19">
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="P3:AA3"/>
+    <mergeCell ref="U6:U12"/>
+    <mergeCell ref="Y6:Y12"/>
+    <mergeCell ref="Q6:Q12"/>
+    <mergeCell ref="N6:N12"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="Z6:Z12"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="R6:R12"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L17"/>
+    <mergeCell ref="E22:L23"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C4FB8-96DD-4A3E-B221-5C79E7470B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33028EB-0A5F-4389-B35A-DDA7EE8226DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -941,6 +941,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,31 +1079,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,15 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,15 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,72 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,29 +1123,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,47 +1501,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.88671875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="0.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="1" customWidth="1"/>
-    <col min="12" max="27" width="9.21875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="18.33203125" style="1"/>
+    <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="0.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12" max="27" width="9.28515625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L3" s="41" t="s">
+    <row r="2" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="47" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="49"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53"/>
     </row>
-    <row r="4" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1563,32 +1563,32 @@
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="35" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="32" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="44" t="s">
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="46"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="50"/>
     </row>
-    <row r="5" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1681,52 +1681,52 @@
       <c r="K6" s="2">
         <v>1.63</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="41">
         <v>137</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="78">
         <v>20.658999999999999</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="63">
         <v>63.8</v>
       </c>
       <c r="O6" s="22">
         <f>L6*(K6/3600)</f>
         <v>6.2030555555555554E-2</v>
       </c>
-      <c r="P6" s="62">
+      <c r="P6" s="38">
         <v>186</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="60">
         <v>0.68100000000000005</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="87">
         <v>64.099999999999994</v>
       </c>
       <c r="S6" s="23">
         <f>P6*(K6/3600)</f>
         <v>8.4216666666666662E-2</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="35">
         <v>201</v>
       </c>
-      <c r="U6" s="74">
+      <c r="U6" s="54">
         <v>1.2410000000000001</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="84">
         <v>65</v>
       </c>
       <c r="W6" s="24">
         <f>T6*(K6/3600)</f>
         <v>9.100833333333333E-2</v>
       </c>
-      <c r="X6" s="50">
+      <c r="X6" s="32">
         <v>227</v>
       </c>
-      <c r="Y6" s="78">
+      <c r="Y6" s="57">
         <v>2.387</v>
       </c>
-      <c r="Z6" s="53">
+      <c r="Z6" s="81">
         <v>64</v>
       </c>
       <c r="AA6" s="25">
@@ -1734,7 +1734,7 @@
         <v>0.10278055555555556</v>
       </c>
     </row>
-    <row r="7" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1756,44 +1756,44 @@
       <c r="K7" s="3">
         <v>0.88</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="42">
         <v>152</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="72"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="7">
         <f>L7*(K7/3600)</f>
         <v>3.7155555555555553E-2</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="39">
         <v>246</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="8">
         <f>P7*(K7/3600)</f>
         <v>6.013333333333333E-2</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="36">
         <v>254</v>
       </c>
-      <c r="U7" s="75"/>
-      <c r="V7" s="60"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="9">
         <f>T7*(K7/3600)</f>
         <v>6.2088888888888888E-2</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="33">
         <v>273</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="54"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="82"/>
       <c r="AA7" s="26">
         <f>X7*(K7/3600)</f>
         <v>6.6733333333333325E-2</v>
       </c>
     </row>
-    <row r="8" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1815,44 +1815,44 @@
       <c r="K8" s="3">
         <v>0.47</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="72"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="7" t="e">
         <f t="shared" ref="O8:O12" si="0">L8*(K8/3600)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="39">
         <v>127</v>
       </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="88">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="46">
         <f>P8*(K8/3600)</f>
         <v>1.6580555555555557E-2</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="36">
         <v>169</v>
       </c>
-      <c r="U8" s="75"/>
-      <c r="V8" s="60"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="9">
         <f t="shared" ref="W8:W12" si="1">T8*(K8/3600)</f>
         <v>2.206388888888889E-2</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="33">
         <v>196</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="54"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="82"/>
       <c r="AA8" s="26">
         <f t="shared" ref="AA8:AA12" si="2">X8*(K8/3600)</f>
         <v>2.5588888888888887E-2</v>
       </c>
     </row>
-    <row r="9" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1874,44 +1874,44 @@
       <c r="K9" s="3">
         <v>0.47</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <v>232</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="89">
+      <c r="M9" s="79"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="7">
         <f t="shared" si="0"/>
         <v>3.028888888888889E-2</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="39">
         <v>240</v>
       </c>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="66"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="8">
         <f t="shared" ref="S9:S12" si="3">P9*(K9/3600)</f>
         <v>3.1333333333333331E-2</v>
       </c>
-      <c r="T9" s="57">
+      <c r="T9" s="36">
         <v>240</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="60"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="85"/>
       <c r="W9" s="9">
         <f t="shared" si="1"/>
         <v>3.1333333333333331E-2</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="33">
         <v>314</v>
       </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="54"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="26">
         <f t="shared" si="2"/>
         <v>4.0994444444444444E-2</v>
       </c>
     </row>
-    <row r="10" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1933,44 +1933,44 @@
       <c r="K10" s="3">
         <v>0.36</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <v>217</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="7">
+      <c r="M10" s="79"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="47">
         <f t="shared" si="0"/>
         <v>2.1699999999999997E-2</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="39">
         <v>180</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="66"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="8">
         <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T10" s="57">
+      <c r="T10" s="36">
         <v>182</v>
       </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="77">
+      <c r="U10" s="55"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="44">
         <f t="shared" si="1"/>
         <v>1.8199999999999997E-2</v>
       </c>
-      <c r="X10" s="51">
+      <c r="X10" s="33">
         <v>219</v>
       </c>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="81">
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="45">
         <f t="shared" si="2"/>
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1992,44 +1992,44 @@
       <c r="K11" s="3">
         <v>0.23</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="72"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="39">
         <v>228</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="66"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="88"/>
       <c r="S11" s="8">
         <f t="shared" si="3"/>
         <v>1.4566666666666669E-2</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="36">
         <v>287</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="60"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="85"/>
       <c r="W11" s="9">
         <f t="shared" si="1"/>
         <v>1.8336111111111112E-2</v>
       </c>
-      <c r="X11" s="51">
+      <c r="X11" s="33">
         <v>647</v>
       </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="54"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="82"/>
       <c r="AA11" s="26">
         <f t="shared" si="2"/>
         <v>4.1336111111111115E-2</v>
       </c>
     </row>
-    <row r="12" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2051,45 +2051,45 @@
       <c r="K12" s="4">
         <v>0.18</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="87"/>
-      <c r="N12" s="73"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="40">
         <v>307</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="67"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="28">
         <f t="shared" si="3"/>
         <v>1.5349999999999999E-2</v>
       </c>
-      <c r="T12" s="58">
+      <c r="T12" s="37">
         <v>309</v>
       </c>
-      <c r="U12" s="76"/>
-      <c r="V12" s="61"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="86"/>
       <c r="W12" s="29">
         <f t="shared" si="1"/>
         <v>1.5449999999999998E-2</v>
       </c>
-      <c r="X12" s="52">
+      <c r="X12" s="34">
         <v>404</v>
       </c>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="55"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="83"/>
       <c r="AA12" s="30">
         <f t="shared" si="2"/>
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="5:27" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="5:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="90" t="s">
         <v>25</v>
       </c>
@@ -2103,97 +2103,97 @@
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="5:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="95" t="s">
+    <row r="16" spans="5:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="98"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="99"/>
+    <row r="17" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="98" t="s">
+    <row r="18" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="99"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="98"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="99"/>
+    <row r="19" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="98" t="s">
+    <row r="20" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="99"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="98"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="99"/>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="100" t="s">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
       <c r="L22" s="101"/>
     </row>
-    <row r="23" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="102"/>
       <c r="F23" s="103"/>
       <c r="G23" s="103"/>
@@ -2205,25 +2205,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="P3:AA3"/>
-    <mergeCell ref="U6:U12"/>
-    <mergeCell ref="Y6:Y12"/>
-    <mergeCell ref="Q6:Q12"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L17"/>
+    <mergeCell ref="E22:L23"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:L21"/>
     <mergeCell ref="N6:N12"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="M6:M12"/>
-    <mergeCell ref="Z6:Z12"/>
     <mergeCell ref="V6:V12"/>
     <mergeCell ref="R6:R12"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L17"/>
-    <mergeCell ref="E22:L23"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="P3:AA3"/>
+    <mergeCell ref="U6:U12"/>
+    <mergeCell ref="Y6:Y12"/>
+    <mergeCell ref="Q6:Q12"/>
+    <mergeCell ref="Z6:Z12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33028EB-0A5F-4389-B35A-DDA7EE8226DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599E7BF-7E78-444F-A36F-F49BB782F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,132 +989,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,6 +1032,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,7 +1502,7 @@
   <dimension ref="E2:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,20 +1526,20 @@
       <c r="M3" s="76"/>
       <c r="N3" s="76"/>
       <c r="O3" s="77"/>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="53"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="92"/>
     </row>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
@@ -1581,12 +1581,12 @@
       <c r="U4" s="67"/>
       <c r="V4" s="67"/>
       <c r="W4" s="68"/>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="50"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
     </row>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
@@ -1697,10 +1697,10 @@
       <c r="P6" s="38">
         <v>186</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="99">
         <v>0.68100000000000005</v>
       </c>
-      <c r="R6" s="87">
+      <c r="R6" s="84">
         <v>64.099999999999994</v>
       </c>
       <c r="S6" s="23">
@@ -1710,10 +1710,10 @@
       <c r="T6" s="35">
         <v>201</v>
       </c>
-      <c r="U6" s="54">
+      <c r="U6" s="93">
         <v>1.2410000000000001</v>
       </c>
-      <c r="V6" s="84">
+      <c r="V6" s="81">
         <v>65</v>
       </c>
       <c r="W6" s="24">
@@ -1723,10 +1723,10 @@
       <c r="X6" s="32">
         <v>227</v>
       </c>
-      <c r="Y6" s="57">
+      <c r="Y6" s="96">
         <v>2.387</v>
       </c>
-      <c r="Z6" s="81">
+      <c r="Z6" s="102">
         <v>64</v>
       </c>
       <c r="AA6" s="25">
@@ -1768,8 +1768,8 @@
       <c r="P7" s="39">
         <v>246</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="88"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="85"/>
       <c r="S7" s="8">
         <f>P7*(K7/3600)</f>
         <v>6.013333333333333E-2</v>
@@ -1777,8 +1777,8 @@
       <c r="T7" s="36">
         <v>254</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="9">
         <f>T7*(K7/3600)</f>
         <v>6.2088888888888888E-2</v>
@@ -1786,8 +1786,8 @@
       <c r="X7" s="33">
         <v>273</v>
       </c>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="82"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="103"/>
       <c r="AA7" s="26">
         <f>X7*(K7/3600)</f>
         <v>6.6733333333333325E-2</v>
@@ -1827,8 +1827,8 @@
       <c r="P8" s="39">
         <v>127</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="88"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="46">
         <f>P8*(K8/3600)</f>
         <v>1.6580555555555557E-2</v>
@@ -1836,8 +1836,8 @@
       <c r="T8" s="36">
         <v>169</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="85"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="9">
         <f t="shared" ref="W8:W12" si="1">T8*(K8/3600)</f>
         <v>2.206388888888889E-2</v>
@@ -1845,8 +1845,8 @@
       <c r="X8" s="33">
         <v>196</v>
       </c>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="82"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="103"/>
       <c r="AA8" s="26">
         <f t="shared" ref="AA8:AA12" si="2">X8*(K8/3600)</f>
         <v>2.5588888888888887E-2</v>
@@ -1886,8 +1886,8 @@
       <c r="P9" s="39">
         <v>240</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="88"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="8">
         <f t="shared" ref="S9:S12" si="3">P9*(K9/3600)</f>
         <v>3.1333333333333331E-2</v>
@@ -1895,8 +1895,8 @@
       <c r="T9" s="36">
         <v>240</v>
       </c>
-      <c r="U9" s="55"/>
-      <c r="V9" s="85"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="9">
         <f t="shared" si="1"/>
         <v>3.1333333333333331E-2</v>
@@ -1904,8 +1904,8 @@
       <c r="X9" s="33">
         <v>314</v>
       </c>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="82"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="103"/>
       <c r="AA9" s="26">
         <f t="shared" si="2"/>
         <v>4.0994444444444444E-2</v>
@@ -1945,8 +1945,8 @@
       <c r="P10" s="39">
         <v>180</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="88"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="8">
         <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
@@ -1954,8 +1954,8 @@
       <c r="T10" s="36">
         <v>182</v>
       </c>
-      <c r="U10" s="55"/>
-      <c r="V10" s="85"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="44">
         <f t="shared" si="1"/>
         <v>1.8199999999999997E-2</v>
@@ -1963,8 +1963,8 @@
       <c r="X10" s="33">
         <v>219</v>
       </c>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="82"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="103"/>
       <c r="AA10" s="45">
         <f t="shared" si="2"/>
         <v>2.1899999999999999E-2</v>
@@ -2004,8 +2004,8 @@
       <c r="P11" s="39">
         <v>228</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="88"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="8">
         <f t="shared" si="3"/>
         <v>1.4566666666666669E-2</v>
@@ -2013,8 +2013,8 @@
       <c r="T11" s="36">
         <v>287</v>
       </c>
-      <c r="U11" s="55"/>
-      <c r="V11" s="85"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="9">
         <f t="shared" si="1"/>
         <v>1.8336111111111112E-2</v>
@@ -2022,8 +2022,8 @@
       <c r="X11" s="33">
         <v>647</v>
       </c>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="82"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="103"/>
       <c r="AA11" s="26">
         <f t="shared" si="2"/>
         <v>4.1336111111111115E-2</v>
@@ -2063,8 +2063,8 @@
       <c r="P12" s="40">
         <v>307</v>
       </c>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="89"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="28">
         <f t="shared" si="3"/>
         <v>1.5349999999999999E-2</v>
@@ -2072,8 +2072,8 @@
       <c r="T12" s="37">
         <v>309</v>
       </c>
-      <c r="U12" s="56"/>
-      <c r="V12" s="86"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="83"/>
       <c r="W12" s="29">
         <f t="shared" si="1"/>
         <v>1.5449999999999998E-2</v>
@@ -2081,8 +2081,8 @@
       <c r="X12" s="34">
         <v>404</v>
       </c>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="83"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="104"/>
       <c r="AA12" s="30">
         <f t="shared" si="2"/>
         <v>2.0199999999999999E-2</v>
@@ -2090,126 +2090,127 @@
     </row>
     <row r="14" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="5:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
     <row r="16" spans="5:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
     </row>
     <row r="17" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
     </row>
     <row r="18" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
     <row r="19" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
     <row r="20" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L17"/>
-    <mergeCell ref="E22:L23"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="P3:AA3"/>
+    <mergeCell ref="U6:U12"/>
+    <mergeCell ref="Y6:Y12"/>
+    <mergeCell ref="Q6:Q12"/>
+    <mergeCell ref="Z6:Z12"/>
     <mergeCell ref="N6:N12"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="P4:S4"/>
@@ -2218,12 +2219,11 @@
     <mergeCell ref="M6:M12"/>
     <mergeCell ref="V6:V12"/>
     <mergeCell ref="R6:R12"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="P3:AA3"/>
-    <mergeCell ref="U6:U12"/>
-    <mergeCell ref="Y6:Y12"/>
-    <mergeCell ref="Q6:Q12"/>
-    <mergeCell ref="Z6:Z12"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L17"/>
+    <mergeCell ref="E22:L23"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PrimeIntellect_Test_GPU_Models.xlsx
+++ b/PrimeIntellect_Test_GPU_Models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sequi\Documents\Projets\prime-intellect-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599E7BF-7E78-444F-A36F-F49BB782F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638BD74-EAB1-48D0-87DD-871422519682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Nemotron</t>
   </si>
@@ -134,10 +135,193 @@
     <t>Disk Size</t>
   </si>
   <si>
-    <t>I wish Accuracy is an average of 5 test runs of the cais/mmlu dataset on H100.</t>
-  </si>
-  <si>
-    <t>Actually Accuracy is MMLU score on based pre-trained model.</t>
+    <t>Subject/model</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Gemma</t>
+  </si>
+  <si>
+    <t>abstract_algebra</t>
+  </si>
+  <si>
+    <t>Minitron</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>astronomy</t>
+  </si>
+  <si>
+    <t>business_ethics</t>
+  </si>
+  <si>
+    <t>clinical_knowledge</t>
+  </si>
+  <si>
+    <t>college_biology</t>
+  </si>
+  <si>
+    <t>college_chemistry</t>
+  </si>
+  <si>
+    <t>college_computer_science</t>
+  </si>
+  <si>
+    <t>college_mathematics</t>
+  </si>
+  <si>
+    <t>college_medicine</t>
+  </si>
+  <si>
+    <t>college_physics</t>
+  </si>
+  <si>
+    <t>computer_security</t>
+  </si>
+  <si>
+    <t>conceptual_physics</t>
+  </si>
+  <si>
+    <t>econometrics</t>
+  </si>
+  <si>
+    <t>electrical_engineering</t>
+  </si>
+  <si>
+    <t>elementary_mathematics</t>
+  </si>
+  <si>
+    <t>formal_logic</t>
+  </si>
+  <si>
+    <t>global_facts</t>
+  </si>
+  <si>
+    <t>high_school_biology</t>
+  </si>
+  <si>
+    <t>high_school_chemistry</t>
+  </si>
+  <si>
+    <t>high_school_computer_science</t>
+  </si>
+  <si>
+    <t>high_school_european_history</t>
+  </si>
+  <si>
+    <t>high_school_geography</t>
+  </si>
+  <si>
+    <t>high_school_government_and_politics</t>
+  </si>
+  <si>
+    <t>high_school_macroeconomics</t>
+  </si>
+  <si>
+    <t>high_school_mathematics</t>
+  </si>
+  <si>
+    <t>high_school_microeconomics</t>
+  </si>
+  <si>
+    <t>high_school_physics</t>
+  </si>
+  <si>
+    <t>high_school_psychology</t>
+  </si>
+  <si>
+    <t>high_school_statistics</t>
+  </si>
+  <si>
+    <t>high_school_us_history</t>
+  </si>
+  <si>
+    <t>high_school_world_history</t>
+  </si>
+  <si>
+    <t>human_aging</t>
+  </si>
+  <si>
+    <t>human_sexuality</t>
+  </si>
+  <si>
+    <t>international_law</t>
+  </si>
+  <si>
+    <t>jurisprudence</t>
+  </si>
+  <si>
+    <t>logical_fallacies</t>
+  </si>
+  <si>
+    <t>machine_learning</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>medical_genetics</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>moral_disputes</t>
+  </si>
+  <si>
+    <t>moral_scenarios</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>prehistory</t>
+  </si>
+  <si>
+    <t>professional_accounting</t>
+  </si>
+  <si>
+    <t>professional_law</t>
+  </si>
+  <si>
+    <t>professional_medicine</t>
+  </si>
+  <si>
+    <t>professional_psychology</t>
+  </si>
+  <si>
+    <t>public_relations</t>
+  </si>
+  <si>
+    <t>security_studies</t>
+  </si>
+  <si>
+    <t>sociology</t>
+  </si>
+  <si>
+    <t>us_foreign_policy</t>
+  </si>
+  <si>
+    <t>virology</t>
+  </si>
+  <si>
+    <t>world_religions</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
   </si>
 </sst>
 </file>
@@ -216,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -842,11 +1026,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,6 +1368,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,6 +1543,109 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,49 +1987,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:AA23"/>
+  <dimension ref="E2:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="0.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12" max="27" width="9.28515625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="2" width="2.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="0.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="1" customWidth="1"/>
+    <col min="16" max="27" width="9.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="75" t="s">
+    <row r="2" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="90" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="92"/>
-    </row>
-    <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="94"/>
+    </row>
+    <row r="4" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1563,32 +2055,32 @@
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="69" t="s">
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="66" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="87" t="s">
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-    </row>
-    <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="91"/>
+    </row>
+    <row r="5" spans="5:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +2099,7 @@
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="48" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -1659,7 +2151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1684,57 +2176,57 @@
       <c r="L6" s="41">
         <v>137</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="80">
         <v>20.658999999999999</v>
       </c>
-      <c r="N6" s="63">
-        <v>63.8</v>
+      <c r="N6" s="65">
+        <v>12.55</v>
       </c>
       <c r="O6" s="22">
-        <f>L6*(K6/3600)</f>
+        <f t="shared" ref="O6:O12" si="0">L6*(K6/3600)</f>
         <v>6.2030555555555554E-2</v>
       </c>
       <c r="P6" s="38">
         <v>186</v>
       </c>
-      <c r="Q6" s="99">
+      <c r="Q6" s="101">
         <v>0.68100000000000005</v>
       </c>
-      <c r="R6" s="84">
-        <v>64.099999999999994</v>
+      <c r="R6" s="86">
+        <v>41.6</v>
       </c>
       <c r="S6" s="23">
-        <f>P6*(K6/3600)</f>
+        <f t="shared" ref="S6:S12" si="1">P6*(K6/3600)</f>
         <v>8.4216666666666662E-2</v>
       </c>
       <c r="T6" s="35">
         <v>201</v>
       </c>
-      <c r="U6" s="93">
+      <c r="U6" s="95">
         <v>1.2410000000000001</v>
       </c>
-      <c r="V6" s="81">
-        <v>65</v>
+      <c r="V6" s="83">
+        <v>23.25</v>
       </c>
       <c r="W6" s="24">
-        <f>T6*(K6/3600)</f>
+        <f t="shared" ref="W6:W12" si="2">T6*(K6/3600)</f>
         <v>9.100833333333333E-2</v>
       </c>
       <c r="X6" s="32">
         <v>227</v>
       </c>
-      <c r="Y6" s="96">
+      <c r="Y6" s="98">
         <v>2.387</v>
       </c>
-      <c r="Z6" s="102">
-        <v>64</v>
+      <c r="Z6" s="104">
+        <v>35.479999999999997</v>
       </c>
       <c r="AA6" s="25">
-        <f>X6*(K6/3600)</f>
+        <f t="shared" ref="AA6:AA12" si="3">X6*(K6/3600)</f>
         <v>0.10278055555555556</v>
       </c>
     </row>
-    <row r="7" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1759,41 +2251,41 @@
       <c r="L7" s="42">
         <v>152</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="64"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="7">
-        <f>L7*(K7/3600)</f>
+        <f t="shared" si="0"/>
         <v>3.7155555555555553E-2</v>
       </c>
       <c r="P7" s="39">
         <v>246</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="85"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="87"/>
       <c r="S7" s="8">
-        <f>P7*(K7/3600)</f>
+        <f t="shared" si="1"/>
         <v>6.013333333333333E-2</v>
       </c>
       <c r="T7" s="36">
         <v>254</v>
       </c>
-      <c r="U7" s="94"/>
-      <c r="V7" s="82"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="9">
-        <f>T7*(K7/3600)</f>
+        <f t="shared" si="2"/>
         <v>6.2088888888888888E-2</v>
       </c>
       <c r="X7" s="33">
         <v>273</v>
       </c>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="103"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="105"/>
       <c r="AA7" s="26">
-        <f>X7*(K7/3600)</f>
+        <f t="shared" si="3"/>
         <v>6.6733333333333325E-2</v>
       </c>
     </row>
-    <row r="8" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1818,41 +2310,41 @@
       <c r="L8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="64"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="7" t="e">
-        <f t="shared" ref="O8:O12" si="0">L8*(K8/3600)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="P8" s="39">
         <v>127</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="85"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="46">
-        <f>P8*(K8/3600)</f>
+        <f t="shared" si="1"/>
         <v>1.6580555555555557E-2</v>
       </c>
       <c r="T8" s="36">
         <v>169</v>
       </c>
-      <c r="U8" s="94"/>
-      <c r="V8" s="82"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="9">
-        <f t="shared" ref="W8:W12" si="1">T8*(K8/3600)</f>
+        <f t="shared" si="2"/>
         <v>2.206388888888889E-2</v>
       </c>
       <c r="X8" s="33">
         <v>196</v>
       </c>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="103"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="105"/>
       <c r="AA8" s="26">
-        <f t="shared" ref="AA8:AA12" si="2">X8*(K8/3600)</f>
+        <f t="shared" si="3"/>
         <v>2.5588888888888887E-2</v>
       </c>
     </row>
-    <row r="9" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1877,8 +2369,8 @@
       <c r="L9" s="42">
         <v>232</v>
       </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="64"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="7">
         <f t="shared" si="0"/>
         <v>3.028888888888889E-2</v>
@@ -1886,32 +2378,32 @@
       <c r="P9" s="39">
         <v>240</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="85"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="87"/>
       <c r="S9" s="8">
-        <f t="shared" ref="S9:S12" si="3">P9*(K9/3600)</f>
+        <f t="shared" si="1"/>
         <v>3.1333333333333331E-2</v>
       </c>
       <c r="T9" s="36">
         <v>240</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="82"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1333333333333331E-2</v>
       </c>
       <c r="X9" s="33">
         <v>314</v>
       </c>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="103"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="105"/>
       <c r="AA9" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0994444444444444E-2</v>
       </c>
     </row>
-    <row r="10" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1936,8 +2428,8 @@
       <c r="L10" s="42">
         <v>217</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="64"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="66"/>
       <c r="O10" s="47">
         <f t="shared" si="0"/>
         <v>2.1699999999999997E-2</v>
@@ -1945,32 +2437,32 @@
       <c r="P10" s="39">
         <v>180</v>
       </c>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="85"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="T10" s="36">
         <v>182</v>
       </c>
-      <c r="U10" s="94"/>
-      <c r="V10" s="82"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="84"/>
       <c r="W10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8199999999999997E-2</v>
       </c>
       <c r="X10" s="33">
         <v>219</v>
       </c>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="103"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="105"/>
       <c r="AA10" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1995,8 +2487,8 @@
       <c r="L11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="64"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2004,32 +2496,32 @@
       <c r="P11" s="39">
         <v>228</v>
       </c>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="85"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4566666666666669E-2</v>
       </c>
       <c r="T11" s="36">
         <v>287</v>
       </c>
-      <c r="U11" s="94"/>
-      <c r="V11" s="82"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="84"/>
       <c r="W11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8336111111111112E-2</v>
       </c>
       <c r="X11" s="33">
         <v>647</v>
       </c>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="103"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="105"/>
       <c r="AA11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1336111111111115E-2</v>
       </c>
     </row>
-    <row r="12" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2054,8 +2546,8 @@
       <c r="L12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="80"/>
-      <c r="N12" s="65"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2063,169 +2555,1504 @@
       <c r="P12" s="40">
         <v>307</v>
       </c>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5349999999999999E-2</v>
       </c>
       <c r="T12" s="37">
         <v>309</v>
       </c>
-      <c r="U12" s="95"/>
-      <c r="V12" s="83"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="85"/>
       <c r="W12" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5449999999999998E-2</v>
       </c>
       <c r="X12" s="34">
         <v>404</v>
       </c>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="104"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="106"/>
       <c r="AA12" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="5:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="48" t="s">
+    <row r="14" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="5:27" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
     </row>
-    <row r="16" spans="5:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="51" t="s">
+    <row r="16" spans="5:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="5:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="57" t="s">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V22"/>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V23"/>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V29"/>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V34"/>
+    </row>
+    <row r="35" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V35"/>
+    </row>
+    <row r="36" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V40"/>
+    </row>
+    <row r="41" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V42"/>
+    </row>
+    <row r="43" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V43"/>
+    </row>
+    <row r="44" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V46"/>
+    </row>
+    <row r="47" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V47"/>
+    </row>
+    <row r="48" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V48"/>
+    </row>
+    <row r="49" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V49"/>
+    </row>
+    <row r="50" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V50"/>
+    </row>
+    <row r="51" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V53"/>
+    </row>
+    <row r="54" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V54"/>
+    </row>
+    <row r="55" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V55"/>
+    </row>
+    <row r="56" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V57"/>
+    </row>
+    <row r="58" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V58"/>
+    </row>
+    <row r="59" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V59"/>
+    </row>
+    <row r="60" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V60"/>
+    </row>
+    <row r="61" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V61"/>
+    </row>
+    <row r="62" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V62"/>
+    </row>
+    <row r="63" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V63"/>
+    </row>
+    <row r="64" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V64"/>
+    </row>
+    <row r="65" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V65"/>
+    </row>
+    <row r="66" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V66"/>
+    </row>
+    <row r="67" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V67"/>
+    </row>
+    <row r="68" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V68"/>
+    </row>
+    <row r="69" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V69"/>
+    </row>
+    <row r="70" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V70"/>
+    </row>
+    <row r="71" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V71"/>
+    </row>
+    <row r="72" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V72"/>
+    </row>
+    <row r="73" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V73"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="V6:V12"/>
+    <mergeCell ref="R6:R12"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="P3:AA3"/>
     <mergeCell ref="U6:U12"/>
     <mergeCell ref="Y6:Y12"/>
     <mergeCell ref="Q6:Q12"/>
     <mergeCell ref="Z6:Z12"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E16:L17"/>
+    <mergeCell ref="E18:L19"/>
     <mergeCell ref="N6:N12"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="V6:V12"/>
-    <mergeCell ref="R6:R12"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="E16:L17"/>
-    <mergeCell ref="E22:L23"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E20:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95045580-DA05-460A-B80B-10CA29555D03}">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" style="49"/>
+    <col min="3" max="3" width="9.6640625" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="123">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="F6" s="127">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G6" s="131">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="H6" s="135">
+        <v>0.27272727299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="124">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F7" s="128">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="G7" s="132">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="H7" s="136">
+        <v>0.571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="124">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="128">
+        <v>0.3125</v>
+      </c>
+      <c r="G8" s="132">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H8" s="136">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F9" s="128">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G9" s="132">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H9" s="136">
+        <v>0.27272727299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="124">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="F10" s="128">
+        <v>0.41379310344827591</v>
+      </c>
+      <c r="G10" s="132">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="H10" s="136">
+        <v>0.34482758600000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="124">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F11" s="128">
+        <v>0.375</v>
+      </c>
+      <c r="G11" s="132">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="124">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="132">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="136">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F13" s="128">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G13" s="132">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H13" s="136">
+        <v>0.27272727299999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F14" s="128">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G14" s="132">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H14" s="136">
+        <v>0.18181818199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="124">
+        <v>0.13636363636363641</v>
+      </c>
+      <c r="F15" s="128">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="G15" s="132">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H15" s="136">
+        <v>0.409090909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="124">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F16" s="128">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G16" s="132">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="H16" s="136">
+        <v>0.27272727299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F17" s="128">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G17" s="132">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H17" s="136">
+        <v>0.36363636399999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="124">
+        <v>0.23076923076923081</v>
+      </c>
+      <c r="F18" s="128">
+        <v>0.34615384615384609</v>
+      </c>
+      <c r="G18" s="132">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="H18" s="136">
+        <v>0.42307692299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="124">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F19" s="128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G19" s="132">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="136">
+        <v>0.33333333300000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="124">
+        <v>0.1875</v>
+      </c>
+      <c r="F20" s="128">
+        <v>0.375</v>
+      </c>
+      <c r="G20" s="132">
+        <v>0.3125</v>
+      </c>
+      <c r="H20" s="136">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="124">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="F21" s="128">
+        <v>0.29268292682926828</v>
+      </c>
+      <c r="G21" s="132">
+        <v>0.31707317073170732</v>
+      </c>
+      <c r="H21" s="136">
+        <v>0.34146341499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="124">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="F22" s="128">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="G22" s="132">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H22" s="136">
+        <v>0.21428571399999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="136">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="124">
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="G24" s="132">
+        <v>0.15625</v>
+      </c>
+      <c r="H24" s="136">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F25" s="128">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="G25" s="132">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H25" s="136">
+        <v>0.18181818199999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="124">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F26" s="128">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G26" s="132">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H26" s="136">
+        <v>0.111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="124">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F27" s="128">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G27" s="132">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H27" s="136">
+        <v>0.55555555599999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="124">
+        <v>0.13636363636363641</v>
+      </c>
+      <c r="F28" s="128">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G28" s="132">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="H28" s="136">
+        <v>0.54545454500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="124">
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="F29" s="128">
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="G29" s="132">
+        <v>0.38095238095238088</v>
+      </c>
+      <c r="H29" s="136">
+        <v>0.47619047599999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="124">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="F30" s="128">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="G30" s="132">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="H30" s="136">
+        <v>0.34883720899999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="124">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="F31" s="128">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="G31" s="132">
+        <v>0.41379310344827591</v>
+      </c>
+      <c r="H31" s="136">
+        <v>0.24137931000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="124">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="F32" s="128">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="G32" s="132">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="H32" s="136">
+        <v>0.26923076899999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="124">
+        <v>0</v>
+      </c>
+      <c r="F33" s="128">
+        <v>0.23529411764705879</v>
+      </c>
+      <c r="G33" s="132">
+        <v>0</v>
+      </c>
+      <c r="H33" s="136">
+        <v>0.117647059</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="124">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="128">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G34" s="132">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="H34" s="136">
+        <v>0.48333333299999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="124">
+        <v>4.3478260869565223E-2</v>
+      </c>
+      <c r="F35" s="128">
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="G35" s="132">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="H35" s="136">
+        <v>0.39130434800000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="124">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="F36" s="128">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G36" s="132">
+        <v>0.13636363636363641</v>
+      </c>
+      <c r="H36" s="136">
+        <v>0.409090909</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="124">
+        <v>3.8461538461538457E-2</v>
+      </c>
+      <c r="F37" s="128">
+        <v>0.46153846153846162</v>
+      </c>
+      <c r="G37" s="132">
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="H37" s="136">
+        <v>0.23076923099999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="124">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="F38" s="128">
+        <v>0.34782608695652167</v>
+      </c>
+      <c r="G38" s="132">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="H38" s="136">
+        <v>0.34782608700000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="124">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F39" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="132">
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="136">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="124">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F40" s="128">
+        <v>0.46153846153846162</v>
+      </c>
+      <c r="G40" s="132">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H40" s="136">
+        <v>0.23076923099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F41" s="128">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G41" s="132">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H41" s="136">
+        <v>0.18181818199999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="124">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F42" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="132">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H42" s="136">
+        <v>0.27777777799999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="124">
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="F43" s="128">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G43" s="132">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H43" s="136">
+        <v>0.45454545499999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="124">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="F44" s="128">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G44" s="132">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="H44" s="136">
+        <v>0.63636363600000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="124">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F45" s="128">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G45" s="132">
+        <v>0.44</v>
+      </c>
+      <c r="H45" s="136">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F46" s="128">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G46" s="132">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H46" s="136">
+        <v>0.45454545499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="124">
+        <v>0.43023255813953493</v>
+      </c>
+      <c r="F47" s="128">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="G47" s="132">
+        <v>0.59302325581395354</v>
+      </c>
+      <c r="H47" s="136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="124">
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="F48" s="128">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="G48" s="132">
+        <v>0.13157894736842099</v>
+      </c>
+      <c r="H48" s="136">
+        <v>0.236842105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="124">
+        <v>0.13</v>
+      </c>
+      <c r="F49" s="128">
+        <v>0.38</v>
+      </c>
+      <c r="G49" s="132">
+        <v>0.09</v>
+      </c>
+      <c r="H49" s="136">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="124">
+        <v>0.15151515151515149</v>
+      </c>
+      <c r="F50" s="128">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G50" s="132">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="H50" s="136">
+        <v>0.393939394</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="124">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="F51" s="128">
+        <v>0.38235294117647062</v>
+      </c>
+      <c r="G51" s="132">
+        <v>0.20588235294117649</v>
+      </c>
+      <c r="H51" s="136">
+        <v>0.47058823500000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="124">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F52" s="128">
+        <v>0.34285714285714292</v>
+      </c>
+      <c r="G52" s="132">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="H52" s="136">
+        <v>0.34285714299999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="124">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F53" s="128">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="G53" s="132">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="H53" s="136">
+        <v>0.19354838699999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="124">
+        <v>1.1764705882352939E-2</v>
+      </c>
+      <c r="F54" s="128">
+        <v>0.1647058823529412</v>
+      </c>
+      <c r="G54" s="132">
+        <v>7.6470588235294124E-2</v>
+      </c>
+      <c r="H54" s="136">
+        <v>0.27058823500000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="124">
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="F55" s="128">
+        <v>0.41935483870967738</v>
+      </c>
+      <c r="G55" s="132">
+        <v>0.16129032258064521</v>
+      </c>
+      <c r="H55" s="136">
+        <v>0.29032258100000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="124">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="F56" s="128">
+        <v>0.49275362318840582</v>
+      </c>
+      <c r="G56" s="132">
+        <v>0.11594202898550721</v>
+      </c>
+      <c r="H56" s="136">
+        <v>0.33333333300000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="124">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F57" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="132">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="H57" s="136">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="124">
+        <v>3.7037037037037028E-2</v>
+      </c>
+      <c r="F58" s="128">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G58" s="132">
+        <v>3.7037037037037028E-2</v>
+      </c>
+      <c r="H58" s="136">
+        <v>0.29629629600000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="124">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="F59" s="128">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="G59" s="132">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="H59" s="136">
+        <v>0.409090909</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="124">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F60" s="128">
+        <v>0.45454545454545447</v>
+      </c>
+      <c r="G60" s="132">
+        <v>0</v>
+      </c>
+      <c r="H60" s="136">
+        <v>0.63636363600000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="124">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F61" s="128">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G61" s="132">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H61" s="136">
+        <v>0.16666666699999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="125">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F62" s="129">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G62" s="133">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="H62" s="137">
+        <v>0.57894736800000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="138">
+        <f>AVERAGE(E6:E62)*100</f>
+        <v>12.557835817450149</v>
+      </c>
+      <c r="F63" s="139">
+        <f>AVERAGE(F6:F62)*100</f>
+        <v>41.603945238158936</v>
+      </c>
+      <c r="G63" s="140">
+        <f>AVERAGE(G6:G62)*100</f>
+        <v>23.258284404262479</v>
+      </c>
+      <c r="H63" s="141">
+        <f>AVERAGE(H6:H62)*100</f>
+        <v>35.484424982456133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>